--- a/replacement/replacement_pitchers.xlsx
+++ b/replacement/replacement_pitchers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seana\Documents\rprojects\fantasy2021\replacement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91027FAD-01B3-4C1A-B893-8A4B0447B2F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D942D854-ECC5-45F5-A8A6-B8D1378D7D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1022,7 +1022,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1615,7 +1615,7 @@
         <v>1.9523809523809523</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ref="E24:H24" si="0">AVERAGE(E2:E22)</f>
+        <f t="shared" ref="E24:F24" si="0">AVERAGE(E2:E22)</f>
         <v>1.0952380952380953</v>
       </c>
       <c r="F24" s="1">
